--- a/data/pca/factorExposure/factorExposure_2015-01-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-01-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01038874307351913</v>
+        <v>0.008767755408937756</v>
       </c>
       <c r="C2">
-        <v>-0.03946517062509008</v>
+        <v>-0.0525232339562119</v>
       </c>
       <c r="D2">
-        <v>0.1224903248016928</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01811626341960075</v>
+      </c>
+      <c r="E2">
+        <v>0.1177928888411277</v>
+      </c>
+      <c r="F2">
+        <v>-0.1355269345921864</v>
+      </c>
+      <c r="G2">
+        <v>-0.06377969085835478</v>
+      </c>
+      <c r="H2">
+        <v>0.03839747909395624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.03644446271430964</v>
+        <v>0.01799189307069701</v>
       </c>
       <c r="C4">
-        <v>-0.1121122079012386</v>
+        <v>-0.1341330628494266</v>
       </c>
       <c r="D4">
-        <v>0.07457465892930422</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.002451192988136293</v>
+      </c>
+      <c r="E4">
+        <v>0.08505219218450923</v>
+      </c>
+      <c r="F4">
+        <v>-0.1096710891041509</v>
+      </c>
+      <c r="G4">
+        <v>0.06720153494891916</v>
+      </c>
+      <c r="H4">
+        <v>0.02505882129871511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.02348845153079828</v>
+        <v>0.03193052206784758</v>
       </c>
       <c r="C6">
-        <v>-0.03919067549636696</v>
+        <v>-0.05022841814218575</v>
       </c>
       <c r="D6">
-        <v>0.07367125935779469</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.006000323850275671</v>
+      </c>
+      <c r="E6">
+        <v>0.1068684861272931</v>
+      </c>
+      <c r="F6">
+        <v>-0.06541954875533418</v>
+      </c>
+      <c r="G6">
+        <v>-0.008433070041976416</v>
+      </c>
+      <c r="H6">
+        <v>-0.04136542066242277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.006931070546559976</v>
+        <v>0.00645144720094947</v>
       </c>
       <c r="C7">
-        <v>-0.03467335739892823</v>
+        <v>-0.05037296230620968</v>
       </c>
       <c r="D7">
-        <v>0.06362892852963059</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.005105356177981099</v>
+      </c>
+      <c r="E7">
+        <v>0.09356090838550953</v>
+      </c>
+      <c r="F7">
+        <v>-0.02076720733571098</v>
+      </c>
+      <c r="G7">
+        <v>0.02083930500850136</v>
+      </c>
+      <c r="H7">
+        <v>-0.01772692889011296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.0004951632636669441</v>
+        <v>-0.004822462014635588</v>
       </c>
       <c r="C8">
-        <v>-0.04295186002130845</v>
+        <v>-0.05154619080109192</v>
       </c>
       <c r="D8">
-        <v>0.06112486107339535</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.01874966410146331</v>
+      </c>
+      <c r="E8">
+        <v>0.06305268217291204</v>
+      </c>
+      <c r="F8">
+        <v>-0.0760721784544824</v>
+      </c>
+      <c r="G8">
+        <v>0.01585949959885106</v>
+      </c>
+      <c r="H8">
+        <v>0.06455636792746371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.02207572317964962</v>
+        <v>0.01108759932090533</v>
       </c>
       <c r="C9">
-        <v>-0.09362414679230181</v>
+        <v>-0.1078104296256217</v>
       </c>
       <c r="D9">
-        <v>0.07240064566958317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.003016238373044059</v>
+      </c>
+      <c r="E9">
+        <v>0.07451347279766184</v>
+      </c>
+      <c r="F9">
+        <v>-0.07877703515252386</v>
+      </c>
+      <c r="G9">
+        <v>0.02569741070242526</v>
+      </c>
+      <c r="H9">
+        <v>-0.01317488860100256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.221500899614648</v>
+        <v>0.2427522362102672</v>
       </c>
       <c r="C10">
-        <v>0.1120113772115081</v>
+        <v>0.08358796445277851</v>
       </c>
       <c r="D10">
-        <v>-0.04191246956578135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.001585852153839457</v>
+      </c>
+      <c r="E10">
+        <v>-0.02657784019490534</v>
+      </c>
+      <c r="F10">
+        <v>-0.01950451014963542</v>
+      </c>
+      <c r="G10">
+        <v>0.01289382215228994</v>
+      </c>
+      <c r="H10">
+        <v>-0.01487564834023527</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.006893338339054069</v>
+        <v>0.01035049423133738</v>
       </c>
       <c r="C11">
-        <v>-0.04440822817229848</v>
+        <v>-0.06445498844308657</v>
       </c>
       <c r="D11">
-        <v>0.04532642855955892</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.005557717401808627</v>
+      </c>
+      <c r="E11">
+        <v>0.05947355653014291</v>
+      </c>
+      <c r="F11">
+        <v>-0.01101577562161945</v>
+      </c>
+      <c r="G11">
+        <v>0.01439668151460197</v>
+      </c>
+      <c r="H11">
+        <v>-0.01353297827454493</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.006673616554315366</v>
+        <v>0.01047846270102436</v>
       </c>
       <c r="C12">
-        <v>-0.0461053160329171</v>
+        <v>-0.05413649984479273</v>
       </c>
       <c r="D12">
-        <v>0.04553268165747471</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.001141291100216957</v>
+      </c>
+      <c r="E12">
+        <v>0.05122508738852825</v>
+      </c>
+      <c r="F12">
+        <v>-0.009198870170826013</v>
+      </c>
+      <c r="G12">
+        <v>-0.01598971750329779</v>
+      </c>
+      <c r="H12">
+        <v>-0.02666981127939773</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01887249543352855</v>
+        <v>0.005616442128144777</v>
       </c>
       <c r="C13">
-        <v>-0.05667187446739623</v>
+        <v>-0.08520351751910216</v>
       </c>
       <c r="D13">
-        <v>0.1114570625092088</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.01754946407817717</v>
+      </c>
+      <c r="E13">
+        <v>0.132473568336176</v>
+      </c>
+      <c r="F13">
+        <v>-0.07914633887612646</v>
+      </c>
+      <c r="G13">
+        <v>-0.09519883647700192</v>
+      </c>
+      <c r="H13">
+        <v>-0.03299501202480267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0099899790608512</v>
+        <v>0.002854637080461022</v>
       </c>
       <c r="C14">
-        <v>-0.02181800379209758</v>
+        <v>-0.04470579910623382</v>
       </c>
       <c r="D14">
-        <v>0.05468380764636077</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01866255864890401</v>
+      </c>
+      <c r="E14">
+        <v>0.1064151804062999</v>
+      </c>
+      <c r="F14">
+        <v>-0.04928720093746936</v>
+      </c>
+      <c r="G14">
+        <v>-0.03420954863066005</v>
+      </c>
+      <c r="H14">
+        <v>-0.04216908091267367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.00196158477973198</v>
+        <v>-0.004794758858694885</v>
       </c>
       <c r="C15">
-        <v>-0.02077806233734431</v>
+        <v>-0.04131471938135464</v>
       </c>
       <c r="D15">
-        <v>0.06218667946142678</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.006826411588501451</v>
+      </c>
+      <c r="E15">
+        <v>0.07509032761900508</v>
+      </c>
+      <c r="F15">
+        <v>-0.02770561057568148</v>
+      </c>
+      <c r="G15">
+        <v>0.0003614539069439406</v>
+      </c>
+      <c r="H15">
+        <v>0.009094068339887639</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.007763873593324639</v>
+        <v>0.009774978866383895</v>
       </c>
       <c r="C16">
-        <v>-0.04207348926014556</v>
+        <v>-0.05601836464609593</v>
       </c>
       <c r="D16">
-        <v>0.04042363343558805</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.001587806938369421</v>
+      </c>
+      <c r="E16">
+        <v>0.05105230603531503</v>
+      </c>
+      <c r="F16">
+        <v>-0.003132905586818292</v>
+      </c>
+      <c r="G16">
+        <v>0.009316366461034949</v>
+      </c>
+      <c r="H16">
+        <v>-0.02963973435804042</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.002846973489491619</v>
+        <v>0.0005438068324781148</v>
       </c>
       <c r="C19">
-        <v>-0.02163142493771628</v>
+        <v>-0.01576661344205267</v>
       </c>
       <c r="D19">
-        <v>0.0320789238666262</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.008175530954144141</v>
+      </c>
+      <c r="E19">
+        <v>0.00768704134452418</v>
+      </c>
+      <c r="F19">
+        <v>0.0005172092859837677</v>
+      </c>
+      <c r="G19">
+        <v>-0.02281295136742547</v>
+      </c>
+      <c r="H19">
+        <v>0.02160038459159237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001800560408896429</v>
+        <v>0.003225035677995323</v>
       </c>
       <c r="C20">
-        <v>-0.04177111993474701</v>
+        <v>-0.06089777004730249</v>
       </c>
       <c r="D20">
-        <v>0.05520241224034399</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0036363951868085</v>
+      </c>
+      <c r="E20">
+        <v>0.07594076735320376</v>
+      </c>
+      <c r="F20">
+        <v>-0.02131503776814469</v>
+      </c>
+      <c r="G20">
+        <v>0.02055698783148369</v>
+      </c>
+      <c r="H20">
+        <v>-0.02351201542573245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.007304552395138598</v>
+        <v>0.00429531498618812</v>
       </c>
       <c r="C21">
-        <v>-0.05953365238836823</v>
+        <v>-0.07046378362606376</v>
       </c>
       <c r="D21">
-        <v>0.07542405892550551</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.003511472956146087</v>
+      </c>
+      <c r="E21">
+        <v>0.08277793558147849</v>
+      </c>
+      <c r="F21">
+        <v>-0.09641544274442301</v>
+      </c>
+      <c r="G21">
+        <v>-0.1061053200873784</v>
+      </c>
+      <c r="H21">
+        <v>-0.02204887790699898</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.002041651852714231</v>
+        <v>-0.009924399778683285</v>
       </c>
       <c r="C22">
-        <v>-0.07468751233887434</v>
+        <v>-0.1020428851207093</v>
       </c>
       <c r="D22">
-        <v>0.1879141367060532</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.07409207903988207</v>
+      </c>
+      <c r="E22">
+        <v>0.2145789274726325</v>
+      </c>
+      <c r="F22">
+        <v>-0.2253592476164527</v>
+      </c>
+      <c r="G22">
+        <v>0.09045646755065517</v>
+      </c>
+      <c r="H22">
+        <v>0.2555703236556227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.002232498451023314</v>
+        <v>-0.006858886261675991</v>
       </c>
       <c r="C23">
-        <v>-0.07591307424938643</v>
+        <v>-0.1047639317287014</v>
       </c>
       <c r="D23">
-        <v>0.1872614485113979</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.07704002585964394</v>
+      </c>
+      <c r="E23">
+        <v>0.2132775509866662</v>
+      </c>
+      <c r="F23">
+        <v>-0.2242118819041141</v>
+      </c>
+      <c r="G23">
+        <v>0.08569810960257442</v>
+      </c>
+      <c r="H23">
+        <v>0.2456454905765711</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.008469351376477939</v>
+        <v>0.01053931787529946</v>
       </c>
       <c r="C24">
-        <v>-0.0641980250343975</v>
+        <v>-0.07257066353686403</v>
       </c>
       <c r="D24">
-        <v>0.05234346375376592</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.01387604491048755</v>
+      </c>
+      <c r="E24">
+        <v>0.06033041522880975</v>
+      </c>
+      <c r="F24">
+        <v>-0.008404668519016115</v>
+      </c>
+      <c r="G24">
+        <v>0.0009683693737213856</v>
+      </c>
+      <c r="H24">
+        <v>-0.01597772451347761</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.01009592193615303</v>
+        <v>0.01435858711304648</v>
       </c>
       <c r="C25">
-        <v>-0.05666878752072312</v>
+        <v>-0.06650166145330288</v>
       </c>
       <c r="D25">
-        <v>0.04081427320192181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0008514274576817114</v>
+      </c>
+      <c r="E25">
+        <v>0.04536468045359297</v>
+      </c>
+      <c r="F25">
+        <v>-0.01105374895869761</v>
+      </c>
+      <c r="G25">
+        <v>0.01008618367183892</v>
+      </c>
+      <c r="H25">
+        <v>-0.01795119458934384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.008762474702606958</v>
+        <v>0.01746336973303077</v>
       </c>
       <c r="C26">
-        <v>-0.02924039877300548</v>
+        <v>-0.04661635508545153</v>
       </c>
       <c r="D26">
-        <v>0.04791143560377528</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02630528246863276</v>
+      </c>
+      <c r="E26">
+        <v>0.06807661874807294</v>
+      </c>
+      <c r="F26">
+        <v>-0.05015304246002289</v>
+      </c>
+      <c r="G26">
+        <v>-0.01132518014026906</v>
+      </c>
+      <c r="H26">
+        <v>0.003288011960563503</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.3035683738083552</v>
+        <v>0.3145845444993317</v>
       </c>
       <c r="C28">
-        <v>0.1200686436229835</v>
+        <v>0.09449384420472304</v>
       </c>
       <c r="D28">
-        <v>-0.03125345395974571</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01499649789557293</v>
+      </c>
+      <c r="E28">
+        <v>-0.05172745436110542</v>
+      </c>
+      <c r="F28">
+        <v>-0.06377479098965289</v>
+      </c>
+      <c r="G28">
+        <v>0.01179615209923269</v>
+      </c>
+      <c r="H28">
+        <v>0.0754431830587725</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.001390141175898305</v>
+        <v>0.00366300530365894</v>
       </c>
       <c r="C29">
-        <v>-0.02758499595674883</v>
+        <v>-0.0521150684175862</v>
       </c>
       <c r="D29">
-        <v>0.06141910223527303</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01444783142378225</v>
+      </c>
+      <c r="E29">
+        <v>0.118725780690053</v>
+      </c>
+      <c r="F29">
+        <v>-0.05488231572469038</v>
+      </c>
+      <c r="G29">
+        <v>-0.03744848380808364</v>
+      </c>
+      <c r="H29">
+        <v>-0.06900583308823618</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.01851678845935285</v>
+        <v>0.01703823821744788</v>
       </c>
       <c r="C30">
-        <v>-0.09742581643049068</v>
+        <v>-0.1180205881815826</v>
       </c>
       <c r="D30">
-        <v>0.1346734219242761</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.004069733413153601</v>
+      </c>
+      <c r="E30">
+        <v>0.1451628620094592</v>
+      </c>
+      <c r="F30">
+        <v>-0.04687211777914049</v>
+      </c>
+      <c r="G30">
+        <v>0.02544918632814811</v>
+      </c>
+      <c r="H30">
+        <v>-0.004740726644222551</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.01509921664906032</v>
+        <v>0.00964914647055227</v>
       </c>
       <c r="C31">
-        <v>-0.09896487419692253</v>
+        <v>-0.1029910573467406</v>
       </c>
       <c r="D31">
-        <v>0.03317980567877949</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.008390110182178794</v>
+      </c>
+      <c r="E31">
+        <v>0.02055467747286095</v>
+      </c>
+      <c r="F31">
+        <v>-0.002255807045691608</v>
+      </c>
+      <c r="G31">
+        <v>-0.009594532689799207</v>
+      </c>
+      <c r="H31">
+        <v>0.02660344353125185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01358142392841048</v>
+        <v>0.01268809337332707</v>
       </c>
       <c r="C32">
-        <v>-0.0570444461807306</v>
+        <v>-0.06325001254129115</v>
       </c>
       <c r="D32">
-        <v>0.08142899502763543</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01381709683025355</v>
+      </c>
+      <c r="E32">
+        <v>0.0600320357074351</v>
+      </c>
+      <c r="F32">
+        <v>-0.1064751975231862</v>
+      </c>
+      <c r="G32">
+        <v>-0.03432898243046745</v>
+      </c>
+      <c r="H32">
+        <v>0.001413194724806474</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.001115824591531348</v>
+        <v>0.007603349055950883</v>
       </c>
       <c r="C33">
-        <v>-0.05770661628257823</v>
+        <v>-0.08062088172547294</v>
       </c>
       <c r="D33">
-        <v>0.07494030509360444</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.008199134106374554</v>
+      </c>
+      <c r="E33">
+        <v>0.09399482972569677</v>
+      </c>
+      <c r="F33">
+        <v>-0.04390968270053557</v>
+      </c>
+      <c r="G33">
+        <v>-0.003149317098024042</v>
+      </c>
+      <c r="H33">
+        <v>-0.01187177621874338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.006143942264446184</v>
+        <v>0.01029940684633521</v>
       </c>
       <c r="C34">
-        <v>-0.06363696376514308</v>
+        <v>-0.06409871973743426</v>
       </c>
       <c r="D34">
-        <v>0.06264069146865958</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.008832650357377715</v>
+      </c>
+      <c r="E34">
+        <v>0.05209068014692724</v>
+      </c>
+      <c r="F34">
+        <v>0.01790343072254765</v>
+      </c>
+      <c r="G34">
+        <v>-0.01732387528397554</v>
+      </c>
+      <c r="H34">
+        <v>-0.007246940471315603</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.00114159883381352</v>
+        <v>0.004457721273897237</v>
       </c>
       <c r="C35">
-        <v>-0.001414015420829096</v>
+        <v>-0.02170310689307202</v>
       </c>
       <c r="D35">
-        <v>0.005785504423118652</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.00239409350227685</v>
+      </c>
+      <c r="E35">
+        <v>0.03744520944928903</v>
+      </c>
+      <c r="F35">
+        <v>-0.02936285484002092</v>
+      </c>
+      <c r="G35">
+        <v>-0.002027359609885129</v>
+      </c>
+      <c r="H35">
+        <v>-0.03288621846458689</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.005974831232888925</v>
+        <v>0.01043260856311923</v>
       </c>
       <c r="C36">
-        <v>-0.02971667192517486</v>
+        <v>-0.0394729049051707</v>
       </c>
       <c r="D36">
-        <v>0.03973464942405448</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01397495270224687</v>
+      </c>
+      <c r="E36">
+        <v>0.05955726367509655</v>
+      </c>
+      <c r="F36">
+        <v>-0.04726316286536884</v>
+      </c>
+      <c r="G36">
+        <v>-0.003374058078705847</v>
+      </c>
+      <c r="H36">
+        <v>-0.002915924943435671</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.005769201684682747</v>
+        <v>0.007426694368147423</v>
       </c>
       <c r="C38">
-        <v>-0.01833744909736358</v>
+        <v>-0.03990862346336007</v>
       </c>
       <c r="D38">
-        <v>0.06431824372712887</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007801816180565512</v>
+      </c>
+      <c r="E38">
+        <v>0.0780253703631881</v>
+      </c>
+      <c r="F38">
+        <v>-0.0215924752408686</v>
+      </c>
+      <c r="G38">
+        <v>0.02258351958134511</v>
+      </c>
+      <c r="H38">
+        <v>0.04701423221082773</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.009324402586097144</v>
+        <v>0.007970027527981163</v>
       </c>
       <c r="C39">
-        <v>-0.0732049178413981</v>
+        <v>-0.09910491024462799</v>
       </c>
       <c r="D39">
-        <v>0.1002217814536066</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.02193689170597245</v>
+      </c>
+      <c r="E39">
+        <v>0.1143191711304675</v>
+      </c>
+      <c r="F39">
+        <v>-0.01167278964215442</v>
+      </c>
+      <c r="G39">
+        <v>-0.00737951244054182</v>
+      </c>
+      <c r="H39">
+        <v>-0.03834308092527176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.003843978286099658</v>
+        <v>0.009801471807107514</v>
       </c>
       <c r="C40">
-        <v>-0.02648967056856819</v>
+        <v>-0.04751921394216934</v>
       </c>
       <c r="D40">
-        <v>0.08992887061556396</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.002898710188157938</v>
+      </c>
+      <c r="E40">
+        <v>0.1255535401283089</v>
+      </c>
+      <c r="F40">
+        <v>-0.009904532850704018</v>
+      </c>
+      <c r="G40">
+        <v>-0.03837510393380798</v>
+      </c>
+      <c r="H40">
+        <v>-0.001010248373423809</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.009282655718650269</v>
+        <v>0.01743968754108351</v>
       </c>
       <c r="C41">
-        <v>-0.02051688489138158</v>
+        <v>-0.03846927253464735</v>
       </c>
       <c r="D41">
-        <v>0.01384847302051129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.00497376951691977</v>
+      </c>
+      <c r="E41">
+        <v>0.02178461303484169</v>
+      </c>
+      <c r="F41">
+        <v>-0.001025780413988981</v>
+      </c>
+      <c r="G41">
+        <v>0.001974601501804561</v>
+      </c>
+      <c r="H41">
+        <v>0.005659000093519893</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.002648767375565997</v>
+        <v>0.008603399907883608</v>
       </c>
       <c r="C43">
-        <v>-0.01709534744525125</v>
+        <v>-0.03178622581718592</v>
       </c>
       <c r="D43">
-        <v>0.03260271700426445</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.001307374363334372</v>
+      </c>
+      <c r="E43">
+        <v>0.04070715349162558</v>
+      </c>
+      <c r="F43">
+        <v>-0.007038801250939909</v>
+      </c>
+      <c r="G43">
+        <v>0.008761949840295427</v>
+      </c>
+      <c r="H43">
+        <v>0.005608525425430955</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01412291632381347</v>
+        <v>0.007325238039126654</v>
       </c>
       <c r="C44">
-        <v>-0.05471075383277427</v>
+        <v>-0.0713085304633069</v>
       </c>
       <c r="D44">
-        <v>0.08183531404669166</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.008857452960166592</v>
+      </c>
+      <c r="E44">
+        <v>0.1072187503475613</v>
+      </c>
+      <c r="F44">
+        <v>-0.05289404978090685</v>
+      </c>
+      <c r="G44">
+        <v>0.005441835440616068</v>
+      </c>
+      <c r="H44">
+        <v>0.01874382779940096</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004029809790367866</v>
+        <v>-0.001853216386551459</v>
       </c>
       <c r="C46">
-        <v>-0.03875361195132903</v>
+        <v>-0.04890356047979579</v>
       </c>
       <c r="D46">
-        <v>0.0639582898061157</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01417983556890488</v>
+      </c>
+      <c r="E46">
+        <v>0.08229832221138539</v>
+      </c>
+      <c r="F46">
+        <v>-0.04351156600932984</v>
+      </c>
+      <c r="G46">
+        <v>-0.01325373800915263</v>
+      </c>
+      <c r="H46">
+        <v>-0.02192526118407644</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.04259462882340451</v>
+        <v>0.02745501602861635</v>
       </c>
       <c r="C47">
-        <v>-0.1262015168609196</v>
+        <v>-0.1216312325758292</v>
       </c>
       <c r="D47">
-        <v>0.04033714498193326</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.004519299457320439</v>
+      </c>
+      <c r="E47">
+        <v>0.002594306502946855</v>
+      </c>
+      <c r="F47">
+        <v>0.007305242423801412</v>
+      </c>
+      <c r="G47">
+        <v>0.01015300359490531</v>
+      </c>
+      <c r="H47">
+        <v>0.01835417994149004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.004205405610920193</v>
+        <v>0.0121196150447163</v>
       </c>
       <c r="C48">
-        <v>-0.03455376767928667</v>
+        <v>-0.04614619729146165</v>
       </c>
       <c r="D48">
-        <v>0.04218012721560263</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01877580901288877</v>
+      </c>
+      <c r="E48">
+        <v>0.06186546083914041</v>
+      </c>
+      <c r="F48">
+        <v>-0.05846388548688539</v>
+      </c>
+      <c r="G48">
+        <v>-0.00103106122071063</v>
+      </c>
+      <c r="H48">
+        <v>0.001041321087562493</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002524504222545385</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.005966189096883024</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.002243105417557332</v>
+      </c>
+      <c r="E49">
+        <v>0.002846251927952518</v>
+      </c>
+      <c r="F49">
+        <v>0.01215223987589967</v>
+      </c>
+      <c r="G49">
+        <v>-0.00275919965051889</v>
+      </c>
+      <c r="H49">
+        <v>-0.01586348657051024</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.01837748860908522</v>
+        <v>0.01188894705874834</v>
       </c>
       <c r="C50">
-        <v>-0.06933115846018387</v>
+        <v>-0.08108597082919801</v>
       </c>
       <c r="D50">
-        <v>0.04680748725946592</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002938551919276853</v>
+      </c>
+      <c r="E50">
+        <v>0.03424083360483628</v>
+      </c>
+      <c r="F50">
+        <v>-0.004634964024393846</v>
+      </c>
+      <c r="G50">
+        <v>0.006487336209760667</v>
+      </c>
+      <c r="H50">
+        <v>0.03283209901831073</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.004160108578342739</v>
+        <v>-0.005475888912095501</v>
       </c>
       <c r="C51">
-        <v>-0.01588848365477028</v>
+        <v>-0.02608698843833536</v>
       </c>
       <c r="D51">
-        <v>0.05479515632439086</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01983319733084306</v>
+      </c>
+      <c r="E51">
+        <v>0.05866105295470816</v>
+      </c>
+      <c r="F51">
+        <v>-0.05424010584025157</v>
+      </c>
+      <c r="G51">
+        <v>-0.01646549457280612</v>
+      </c>
+      <c r="H51">
+        <v>0.003950503246100531</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.07806388924878259</v>
+        <v>0.05798118011710168</v>
       </c>
       <c r="C53">
-        <v>-0.1608005530512282</v>
+        <v>-0.1663977437147782</v>
       </c>
       <c r="D53">
-        <v>-0.01026160838257487</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.0200918620029625</v>
+      </c>
+      <c r="E53">
+        <v>-0.06045889630617556</v>
+      </c>
+      <c r="F53">
+        <v>0.007551147748319624</v>
+      </c>
+      <c r="G53">
+        <v>-0.01160190240561555</v>
+      </c>
+      <c r="H53">
+        <v>0.03453839769061465</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.001389033047778569</v>
+        <v>0.01065280137861247</v>
       </c>
       <c r="C54">
-        <v>-0.03453102594047359</v>
+        <v>-0.05092333453900293</v>
       </c>
       <c r="D54">
-        <v>0.07467483330295699</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.008943896265887359</v>
+      </c>
+      <c r="E54">
+        <v>0.07902443774525575</v>
+      </c>
+      <c r="F54">
+        <v>-0.02480140926322515</v>
+      </c>
+      <c r="G54">
+        <v>-8.154259760120577e-05</v>
+      </c>
+      <c r="H54">
+        <v>0.006253763877652088</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.05874067757736093</v>
+        <v>0.03766246795162745</v>
       </c>
       <c r="C55">
-        <v>-0.1252107455723248</v>
+        <v>-0.1236142039644693</v>
       </c>
       <c r="D55">
-        <v>-0.006303667083623835</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04128658200878459</v>
+      </c>
+      <c r="E55">
+        <v>-0.04731039818815582</v>
+      </c>
+      <c r="F55">
+        <v>0.03352590996443543</v>
+      </c>
+      <c r="G55">
+        <v>-0.02422366974770968</v>
+      </c>
+      <c r="H55">
+        <v>0.04182020188258126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.09176380774889908</v>
+        <v>0.05784898439699436</v>
       </c>
       <c r="C56">
-        <v>-0.1876466938147748</v>
+        <v>-0.1920087523570552</v>
       </c>
       <c r="D56">
-        <v>0.01536350244909322</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.02930209120120833</v>
+      </c>
+      <c r="E56">
+        <v>-0.07354602385604911</v>
+      </c>
+      <c r="F56">
+        <v>0.04836546871731599</v>
+      </c>
+      <c r="G56">
+        <v>-0.05230430446947328</v>
+      </c>
+      <c r="H56">
+        <v>0.1190898652496745</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2173,334 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.01464840934522801</v>
+        <v>0.009404436092708746</v>
       </c>
       <c r="C58">
-        <v>-0.05614896051644077</v>
+        <v>-0.1041566098979537</v>
       </c>
       <c r="D58">
-        <v>0.170341210515735</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07391272107586358</v>
+      </c>
+      <c r="E58">
+        <v>0.1987546677701327</v>
+      </c>
+      <c r="F58">
+        <v>-0.252920709268812</v>
+      </c>
+      <c r="G58">
+        <v>0.05688315070045597</v>
+      </c>
+      <c r="H58">
+        <v>0.1409812005835145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.2287383092809734</v>
+        <v>0.2637310695034804</v>
       </c>
       <c r="C59">
-        <v>0.07371462796501102</v>
+        <v>0.04881633706807428</v>
       </c>
       <c r="D59">
-        <v>0.04948334836803414</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03138047079853073</v>
+      </c>
+      <c r="E59">
+        <v>0.02162141283216399</v>
+      </c>
+      <c r="F59">
+        <v>-0.04586302705801783</v>
+      </c>
+      <c r="G59">
+        <v>-0.03333418374861569</v>
+      </c>
+      <c r="H59">
+        <v>0.006000885347198163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1456383495184774</v>
+        <v>0.1506416284669497</v>
       </c>
       <c r="C60">
-        <v>-0.1302173760983657</v>
+        <v>-0.1587374273803432</v>
       </c>
       <c r="D60">
-        <v>0.1056394390796096</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.0187650334134838</v>
+      </c>
+      <c r="E60">
+        <v>0.1162766015417768</v>
+      </c>
+      <c r="F60">
+        <v>0.2057105580164549</v>
+      </c>
+      <c r="G60">
+        <v>-0.02724754790448632</v>
+      </c>
+      <c r="H60">
+        <v>-0.2398508281117319</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.01306343748149482</v>
+        <v>0.01401856686782732</v>
       </c>
       <c r="C61">
-        <v>-0.06373804831647378</v>
+        <v>-0.08600559144507817</v>
       </c>
       <c r="D61">
-        <v>0.06898395694095248</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.01049814287134335</v>
+      </c>
+      <c r="E61">
+        <v>0.07845173873295409</v>
+      </c>
+      <c r="F61">
+        <v>-0.002145327639437265</v>
+      </c>
+      <c r="G61">
+        <v>-0.009587498075415569</v>
+      </c>
+      <c r="H61">
+        <v>-0.01602682664921233</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-9.804299747072644e-05</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.000516185397036723</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.000731743436363525</v>
+      </c>
+      <c r="E62">
+        <v>-0.0003507907391475526</v>
+      </c>
+      <c r="F62">
+        <v>-0.002033659513491312</v>
+      </c>
+      <c r="G62">
+        <v>-0.000381217825200068</v>
+      </c>
+      <c r="H62">
+        <v>0.001213742963786055</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.00228478940131023</v>
+        <v>0.01519313861174937</v>
       </c>
       <c r="C63">
-        <v>-0.04048460364704629</v>
+        <v>-0.05803915093432192</v>
       </c>
       <c r="D63">
-        <v>0.06010667180986669</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02679635629271199</v>
+      </c>
+      <c r="E63">
+        <v>0.08212404858022605</v>
+      </c>
+      <c r="F63">
+        <v>-0.02264065562585991</v>
+      </c>
+      <c r="G63">
+        <v>-0.002821785600003264</v>
+      </c>
+      <c r="H63">
+        <v>-0.02056965739710027</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.02980680962044983</v>
+        <v>0.01549823331446313</v>
       </c>
       <c r="C64">
-        <v>-0.1062097484971988</v>
+        <v>-0.1042385348564089</v>
       </c>
       <c r="D64">
-        <v>0.01111088349361917</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02200177386406686</v>
+      </c>
+      <c r="E64">
+        <v>0.01779571222293595</v>
+      </c>
+      <c r="F64">
+        <v>-0.01752755875476798</v>
+      </c>
+      <c r="G64">
+        <v>0.03300068729109012</v>
+      </c>
+      <c r="H64">
+        <v>-0.03234774137413792</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.02186196037518149</v>
+        <v>0.0262271270550418</v>
       </c>
       <c r="C65">
-        <v>-0.03299655153351166</v>
+        <v>-0.05738584749432076</v>
       </c>
       <c r="D65">
-        <v>0.0821883433096124</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0190758218676606</v>
+      </c>
+      <c r="E65">
+        <v>0.114732452285742</v>
+      </c>
+      <c r="F65">
+        <v>-0.005963784606126392</v>
+      </c>
+      <c r="G65">
+        <v>0.04534999097257716</v>
+      </c>
+      <c r="H65">
+        <v>-0.06436435059376668</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.01756796658928842</v>
+        <v>0.01022573379894435</v>
       </c>
       <c r="C66">
-        <v>-0.09248243161503021</v>
+        <v>-0.1247727692124523</v>
       </c>
       <c r="D66">
-        <v>0.1283428521733818</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.006275186992253731</v>
+      </c>
+      <c r="E66">
+        <v>0.1291491233397637</v>
+      </c>
+      <c r="F66">
+        <v>-0.02146886851384031</v>
+      </c>
+      <c r="G66">
+        <v>-0.008033993610132845</v>
+      </c>
+      <c r="H66">
+        <v>-0.006156151974915528</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01466019951644343</v>
+        <v>0.01613383598062286</v>
       </c>
       <c r="C67">
-        <v>-0.02283080927160815</v>
+        <v>-0.04083810704171802</v>
       </c>
       <c r="D67">
-        <v>0.03679079706126231</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.004519008437878117</v>
+      </c>
+      <c r="E67">
+        <v>0.05310953700368329</v>
+      </c>
+      <c r="F67">
+        <v>0.01842802271230973</v>
+      </c>
+      <c r="G67">
+        <v>0.0151469796170384</v>
+      </c>
+      <c r="H67">
+        <v>0.0267210299945043</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.2386588786728897</v>
+        <v>0.2799965047154226</v>
       </c>
       <c r="C68">
-        <v>0.0954341959607478</v>
+        <v>0.06454266760628229</v>
       </c>
       <c r="D68">
-        <v>0.0130134257874215</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02349476551759113</v>
+      </c>
+      <c r="E68">
+        <v>0.03139863852413236</v>
+      </c>
+      <c r="F68">
+        <v>-0.05752925373770599</v>
+      </c>
+      <c r="G68">
+        <v>0.004797506632935315</v>
+      </c>
+      <c r="H68">
+        <v>0.03882601018806504</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.02974898259223414</v>
+        <v>0.01202994213760432</v>
       </c>
       <c r="C69">
-        <v>-0.1265896569258748</v>
+        <v>-0.1090278764680237</v>
       </c>
       <c r="D69">
-        <v>0.04927837084892974</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008819640748090813</v>
+      </c>
+      <c r="E69">
+        <v>0.008583133622464528</v>
+      </c>
+      <c r="F69">
+        <v>0.01544624656650584</v>
+      </c>
+      <c r="G69">
+        <v>-0.005402551846515403</v>
+      </c>
+      <c r="H69">
+        <v>0.01494792172242894</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.2615243315791348</v>
+        <v>0.272234034348196</v>
       </c>
       <c r="C71">
-        <v>0.1144845503183868</v>
+        <v>0.08164087493385055</v>
       </c>
       <c r="D71">
-        <v>0.008750724441026356</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01201628807626874</v>
+      </c>
+      <c r="E71">
+        <v>0.008259461704302381</v>
+      </c>
+      <c r="F71">
+        <v>-0.03155068900445532</v>
+      </c>
+      <c r="G71">
+        <v>0.01029940291591277</v>
+      </c>
+      <c r="H71">
+        <v>0.05213543082395251</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.08041003108132588</v>
+        <v>0.06356731064805798</v>
       </c>
       <c r="C72">
-        <v>-0.1075424221364444</v>
+        <v>-0.1301888915396915</v>
       </c>
       <c r="D72">
-        <v>0.08736695220702462</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02306264933827635</v>
+      </c>
+      <c r="E72">
+        <v>0.0745328372293976</v>
+      </c>
+      <c r="F72">
+        <v>0.0299914652047732</v>
+      </c>
+      <c r="G72">
+        <v>0.01667515645326757</v>
+      </c>
+      <c r="H72">
+        <v>-0.05428087921569739</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1487410104110942</v>
+        <v>0.1555173202733213</v>
       </c>
       <c r="C73">
-        <v>-0.1158829072539247</v>
+        <v>-0.1743132356697594</v>
       </c>
       <c r="D73">
-        <v>0.168074291995699</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.08217554353010625</v>
+      </c>
+      <c r="E73">
+        <v>0.2352273323254773</v>
+      </c>
+      <c r="F73">
+        <v>0.3472626168905132</v>
+      </c>
+      <c r="G73">
+        <v>0.01990047307097342</v>
+      </c>
+      <c r="H73">
+        <v>-0.3504083259279464</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.06955005897250109</v>
+        <v>0.04713493475257404</v>
       </c>
       <c r="C74">
-        <v>-0.1406290564298152</v>
+        <v>-0.138586681682447</v>
       </c>
       <c r="D74">
-        <v>-0.05821312122534743</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03077410136568681</v>
+      </c>
+      <c r="E74">
+        <v>-0.07994050295683829</v>
+      </c>
+      <c r="F74">
+        <v>0.01092599303618347</v>
+      </c>
+      <c r="G74">
+        <v>-0.00322921729794766</v>
+      </c>
+      <c r="H74">
+        <v>0.03341814570023167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.1644284203227701</v>
+        <v>0.09406395481889934</v>
       </c>
       <c r="C75">
-        <v>-0.2421670547656786</v>
+        <v>-0.2449393544179546</v>
       </c>
       <c r="D75">
-        <v>-0.03207462984087334</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02135126874114501</v>
+      </c>
+      <c r="E75">
+        <v>-0.1701365728241404</v>
+      </c>
+      <c r="F75">
+        <v>0.1324205200403529</v>
+      </c>
+      <c r="G75">
+        <v>-0.01490793508362059</v>
+      </c>
+      <c r="H75">
+        <v>0.2328304157487745</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.09166478605590256</v>
+        <v>0.05588905429195373</v>
       </c>
       <c r="C76">
-        <v>-0.173191528475279</v>
+        <v>-0.1772932841015307</v>
       </c>
       <c r="D76">
-        <v>0.004444890249589557</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.02917374134353988</v>
+      </c>
+      <c r="E76">
+        <v>-0.0698551274783485</v>
+      </c>
+      <c r="F76">
+        <v>0.07113370229842091</v>
+      </c>
+      <c r="G76">
+        <v>-0.04306916622380871</v>
+      </c>
+      <c r="H76">
+        <v>0.07607222681457521</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.0009327185970005839</v>
+        <v>0.00590227427646848</v>
       </c>
       <c r="C77">
-        <v>-0.121750466945734</v>
+        <v>-0.1594500295754238</v>
       </c>
       <c r="D77">
-        <v>0.2455443401590963</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.9390713573323743</v>
+      </c>
+      <c r="E77">
+        <v>-0.1470962808667726</v>
+      </c>
+      <c r="F77">
+        <v>0.07246309457814644</v>
+      </c>
+      <c r="G77">
+        <v>0.09796078443992587</v>
+      </c>
+      <c r="H77">
+        <v>-0.1316343864517911</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.02258974445919766</v>
+        <v>0.02291342830336293</v>
       </c>
       <c r="C78">
-        <v>-0.09205572666620752</v>
+        <v>-0.1014534617864453</v>
       </c>
       <c r="D78">
-        <v>0.1098000270262069</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.01845910066696485</v>
+      </c>
+      <c r="E78">
+        <v>0.08064626174482448</v>
+      </c>
+      <c r="F78">
+        <v>-0.07228785923224462</v>
+      </c>
+      <c r="G78">
+        <v>-0.05759405665605182</v>
+      </c>
+      <c r="H78">
+        <v>0.06784788040825843</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.07837562308586128</v>
+        <v>0.05255515630601332</v>
       </c>
       <c r="C79">
-        <v>-0.3118107625701984</v>
+        <v>-0.2545987554162173</v>
       </c>
       <c r="D79">
-        <v>-0.690008585861864</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.1665094272149025</v>
+      </c>
+      <c r="E79">
+        <v>-0.4398356666291546</v>
+      </c>
+      <c r="F79">
+        <v>-0.5379370134834128</v>
+      </c>
+      <c r="G79">
+        <v>0.325597802789662</v>
+      </c>
+      <c r="H79">
+        <v>-0.489744743025707</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.0003293082182126895</v>
+        <v>0.009350166948075</v>
       </c>
       <c r="C80">
-        <v>-0.05058643460029263</v>
+        <v>-0.05074496709836867</v>
       </c>
       <c r="D80">
-        <v>0.02948257632262594</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03717157943181073</v>
+      </c>
+      <c r="E80">
+        <v>0.05599520432452318</v>
+      </c>
+      <c r="F80">
+        <v>0.01244817400444668</v>
+      </c>
+      <c r="G80">
+        <v>-0.06140514224572532</v>
+      </c>
+      <c r="H80">
+        <v>-0.03914020609964981</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.06561365284505409</v>
+        <v>0.02927429466713052</v>
       </c>
       <c r="C81">
-        <v>-0.1585242912892268</v>
+        <v>-0.1544485409504917</v>
       </c>
       <c r="D81">
-        <v>-0.06877004036353861</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.02782476654427835</v>
+      </c>
+      <c r="E81">
+        <v>-0.1080684796437957</v>
+      </c>
+      <c r="F81">
+        <v>-0.007722848364178971</v>
+      </c>
+      <c r="G81">
+        <v>-0.04045304414946093</v>
+      </c>
+      <c r="H81">
+        <v>0.081552743142133</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1261795585633785</v>
+        <v>0.07025087372842384</v>
       </c>
       <c r="C82">
-        <v>-0.2590518500445194</v>
+        <v>-0.2282526094555237</v>
       </c>
       <c r="D82">
-        <v>-0.03340190856953304</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.03607610509401768</v>
+      </c>
+      <c r="E82">
+        <v>-0.1552341177064006</v>
+      </c>
+      <c r="F82">
+        <v>0.08114948687003815</v>
+      </c>
+      <c r="G82">
+        <v>-0.09655717517526125</v>
+      </c>
+      <c r="H82">
+        <v>0.1459804602762227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.01835067500991176</v>
+        <v>-0.00716123756943473</v>
       </c>
       <c r="C83">
-        <v>-0.05384499889369854</v>
+        <v>-0.01783687563210844</v>
       </c>
       <c r="D83">
-        <v>0.007161379396055608</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.08054957273839392</v>
+      </c>
+      <c r="E83">
+        <v>-0.08724543837299389</v>
+      </c>
+      <c r="F83">
+        <v>-0.2572733879118009</v>
+      </c>
+      <c r="G83">
+        <v>-0.871777401576615</v>
+      </c>
+      <c r="H83">
+        <v>-0.2038348268188765</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.001514321353705274</v>
+        <v>-0.002821948355754046</v>
       </c>
       <c r="C84">
-        <v>-0.00921963825829417</v>
+        <v>-0.02497655111441805</v>
       </c>
       <c r="D84">
-        <v>0.01964505458845958</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01371730398219568</v>
+      </c>
+      <c r="E84">
+        <v>0.04657555785816504</v>
+      </c>
+      <c r="F84">
+        <v>-0.05883756842248625</v>
+      </c>
+      <c r="G84">
+        <v>0.03631179171373947</v>
+      </c>
+      <c r="H84">
+        <v>0.05162996444313048</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.08752898239503572</v>
+        <v>0.0508247997397844</v>
       </c>
       <c r="C85">
-        <v>-0.1775941941823199</v>
+        <v>-0.1721349884944904</v>
       </c>
       <c r="D85">
-        <v>-0.0947854084040521</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08783703473098267</v>
+      </c>
+      <c r="E85">
+        <v>-0.1233048686171671</v>
+      </c>
+      <c r="F85">
+        <v>0.008330266747611902</v>
+      </c>
+      <c r="G85">
+        <v>-0.007682797627118093</v>
+      </c>
+      <c r="H85">
+        <v>0.06277880085949702</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.02770573841571646</v>
+        <v>0.01626188104663891</v>
       </c>
       <c r="C86">
-        <v>-0.02369448893738726</v>
+        <v>-0.05209416721355421</v>
       </c>
       <c r="D86">
-        <v>0.07340406345925246</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03795920380254619</v>
+      </c>
+      <c r="E86">
+        <v>0.05253447703072139</v>
+      </c>
+      <c r="F86">
+        <v>-0.08240667482333577</v>
+      </c>
+      <c r="G86">
+        <v>0.03344488494706208</v>
+      </c>
+      <c r="H86">
+        <v>0.05721468179670941</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.0210279168247999</v>
+        <v>0.01293458046492017</v>
       </c>
       <c r="C87">
-        <v>-0.06242556196616631</v>
+        <v>-0.08213859332823691</v>
       </c>
       <c r="D87">
-        <v>0.1175481411222745</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.03278868890440899</v>
+      </c>
+      <c r="E87">
+        <v>0.110795401767993</v>
+      </c>
+      <c r="F87">
+        <v>-0.09132434742031155</v>
+      </c>
+      <c r="G87">
+        <v>0.001553071446626468</v>
+      </c>
+      <c r="H87">
+        <v>0.04705060114364867</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.0361898669209158</v>
+        <v>0.03494699622260446</v>
       </c>
       <c r="C88">
-        <v>-0.071923885603056</v>
+        <v>-0.08032606918665003</v>
       </c>
       <c r="D88">
-        <v>-0.0004583073811204331</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01703322590092332</v>
+      </c>
+      <c r="E88">
+        <v>0.01580135486157718</v>
+      </c>
+      <c r="F88">
+        <v>0.003719453754050545</v>
+      </c>
+      <c r="G88">
+        <v>0.002977562287599165</v>
+      </c>
+      <c r="H88">
+        <v>0.0002180018672356331</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.3964260725255814</v>
+        <v>0.3992598240915</v>
       </c>
       <c r="C89">
-        <v>0.2046750514898378</v>
+        <v>0.1507577932328271</v>
       </c>
       <c r="D89">
-        <v>0.001796615764277544</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.04479866708498146</v>
+      </c>
+      <c r="E89">
+        <v>0.01407757238309828</v>
+      </c>
+      <c r="F89">
+        <v>-0.108034487308759</v>
+      </c>
+      <c r="G89">
+        <v>-0.09256451631081433</v>
+      </c>
+      <c r="H89">
+        <v>-0.02441526617986078</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.3164131624148336</v>
+        <v>0.3240978767645358</v>
       </c>
       <c r="C90">
-        <v>0.1492535267934433</v>
+        <v>0.09744502247888273</v>
       </c>
       <c r="D90">
-        <v>0.0599806590910749</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02371905766331801</v>
+      </c>
+      <c r="E90">
+        <v>0.0387256070623049</v>
+      </c>
+      <c r="F90">
+        <v>-0.01272332623522051</v>
+      </c>
+      <c r="G90">
+        <v>-0.01001894901111458</v>
+      </c>
+      <c r="H90">
+        <v>0.0429906970294951</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1015851865572866</v>
+        <v>0.06457729081401037</v>
       </c>
       <c r="C91">
-        <v>-0.2195046967226451</v>
+        <v>-0.1911055383182839</v>
       </c>
       <c r="D91">
-        <v>-0.09245904314610388</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02565401420660677</v>
+      </c>
+      <c r="E91">
+        <v>-0.1560518615914214</v>
+      </c>
+      <c r="F91">
+        <v>-0.004555029330922054</v>
+      </c>
+      <c r="G91">
+        <v>-0.02802202919905436</v>
+      </c>
+      <c r="H91">
+        <v>0.0395362426146787</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.3148337502251095</v>
+        <v>0.3409709423754629</v>
       </c>
       <c r="C92">
-        <v>0.1565997067841415</v>
+        <v>0.1207449784235136</v>
       </c>
       <c r="D92">
-        <v>-0.01811677870650296</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.04848886741232685</v>
+      </c>
+      <c r="E92">
+        <v>-0.01589007648788736</v>
+      </c>
+      <c r="F92">
+        <v>-0.06237907096539004</v>
+      </c>
+      <c r="G92">
+        <v>0.07677334559717391</v>
+      </c>
+      <c r="H92">
+        <v>0.05446724965794179</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.3354917898303617</v>
+        <v>0.3312635910746577</v>
       </c>
       <c r="C93">
-        <v>0.1598818642794139</v>
+        <v>0.1170590896702922</v>
       </c>
       <c r="D93">
-        <v>-0.03027631646111585</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0188871294538146</v>
+      </c>
+      <c r="E93">
+        <v>-0.01930796623045631</v>
+      </c>
+      <c r="F93">
+        <v>-0.004305188288296591</v>
+      </c>
+      <c r="G93">
+        <v>0.05123868519989391</v>
+      </c>
+      <c r="H93">
+        <v>0.002881483013929751</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1685970243565487</v>
+        <v>0.1132991383758177</v>
       </c>
       <c r="C94">
-        <v>-0.2829115438920783</v>
+        <v>-0.2715906392629744</v>
       </c>
       <c r="D94">
-        <v>-0.08367455947468294</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.08322751850483973</v>
+      </c>
+      <c r="E94">
+        <v>-0.267127873738089</v>
+      </c>
+      <c r="F94">
+        <v>0.1814984608913596</v>
+      </c>
+      <c r="G94">
+        <v>-0.1024445651346755</v>
+      </c>
+      <c r="H94">
+        <v>0.3167209138833226</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.001013496941240804</v>
+        <v>0.01582342280438605</v>
       </c>
       <c r="C95">
-        <v>-0.08606621230946856</v>
+        <v>-0.111042313589245</v>
       </c>
       <c r="D95">
-        <v>0.1177088865837109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1135484463124308</v>
+      </c>
+      <c r="E95">
+        <v>0.05547873110215822</v>
+      </c>
+      <c r="F95">
+        <v>0.08836687082954398</v>
+      </c>
+      <c r="G95">
+        <v>-0.02771935024795732</v>
+      </c>
+      <c r="H95">
+        <v>-0.02917677575179176</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002248924193928264</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.001525905382930404</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.005263278491211843</v>
+      </c>
+      <c r="E97">
+        <v>0.004517167654457543</v>
+      </c>
+      <c r="F97">
+        <v>0.0002989526046441622</v>
+      </c>
+      <c r="G97">
+        <v>0.004904219106903846</v>
+      </c>
+      <c r="H97">
+        <v>0.003942956145282239</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1226916205309832</v>
+        <v>0.1334729873182466</v>
       </c>
       <c r="C98">
-        <v>-0.1053331202468997</v>
+        <v>-0.150333882923438</v>
       </c>
       <c r="D98">
-        <v>0.1265633976943138</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.06935774210293637</v>
+      </c>
+      <c r="E98">
+        <v>0.1686437841368681</v>
+      </c>
+      <c r="F98">
+        <v>0.2704759492364178</v>
+      </c>
+      <c r="G98">
+        <v>0.02773501996129131</v>
+      </c>
+      <c r="H98">
+        <v>-0.2966678713927897</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.002396830938851071</v>
+        <v>0.003773118990746132</v>
       </c>
       <c r="C101">
-        <v>-0.02696971116052257</v>
+        <v>-0.05112243562761843</v>
       </c>
       <c r="D101">
-        <v>0.0613037681551749</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01381429380768543</v>
+      </c>
+      <c r="E101">
+        <v>0.1177363306959459</v>
+      </c>
+      <c r="F101">
+        <v>-0.05428105293772442</v>
+      </c>
+      <c r="G101">
+        <v>-0.0371635902241788</v>
+      </c>
+      <c r="H101">
+        <v>-0.06815994482147282</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.05315665658252273</v>
+        <v>0.01860323675989279</v>
       </c>
       <c r="C102">
-        <v>-0.1465613108641295</v>
+        <v>-0.1062820804630188</v>
       </c>
       <c r="D102">
-        <v>0.0132901682739551</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.01220429196499043</v>
+      </c>
+      <c r="E102">
+        <v>-0.07179475415408412</v>
+      </c>
+      <c r="F102">
+        <v>0.06530975686657912</v>
+      </c>
+      <c r="G102">
+        <v>-0.04449137450003081</v>
+      </c>
+      <c r="H102">
+        <v>0.04300429838466076</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
